--- a/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,62; 99,38</t>
+          <t>96,67; 99,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,27; 92,73</t>
+          <t>84,43; 92,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,63; 98,34</t>
+          <t>90,68; 98,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,58; 64,5</t>
+          <t>50,0; 64,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,8; 98,69</t>
+          <t>95,77; 98,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,76; 82,85</t>
+          <t>75,63; 82,68</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,31</t>
+          <t>98,0; 99,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,4; 83,36</t>
+          <t>67,33; 83,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 98,0</t>
+          <t>95,14; 98,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,02; 82,09</t>
+          <t>65,73; 80,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,36; 98,63</t>
+          <t>97,4; 98,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,58; 79,46</t>
+          <t>70,42; 79,44</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,68; 99,75</t>
+          <t>97,73; 99,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,34; 86,89</t>
+          <t>79,15; 87,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,32; 99,63</t>
+          <t>96,2; 99,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,16; 78,49</t>
+          <t>69,28; 78,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,66; 99,54</t>
+          <t>97,71; 99,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,73; 81,87</t>
+          <t>75,71; 81,62</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,2</t>
+          <t>98,16; 99,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,4; 84,21</t>
+          <t>74,09; 84,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,99; 98,09</t>
+          <t>96,04; 98,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,64; 77,58</t>
+          <t>66,75; 78,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,61; 98,59</t>
+          <t>97,61; 98,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,28; 79,73</t>
+          <t>72,3; 79,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,67; 99,4</t>
+          <t>96,49; 99,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,68; 98,38</t>
+          <t>90,87; 98,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,77; 98,71</t>
+          <t>96,01; 98,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,0; 99,33</t>
+          <t>98,0; 99,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,14; 98,04</t>
+          <t>95,31; 97,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,4; 98,66</t>
+          <t>97,34; 98,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,73; 99,75</t>
+          <t>97,81; 99,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,2; 99,63</t>
+          <t>96,11; 99,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,71; 99,61</t>
+          <t>97,84; 99,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,16; 99,22</t>
+          <t>98,18; 99,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,04; 98,1</t>
+          <t>95,97; 98,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,61; 98,57</t>
+          <t>97,63; 98,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,49; 99,42</t>
+          <t>96,62; 99,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,43; 92,47</t>
+          <t>84,27; 92,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,87; 98,4</t>
+          <t>90,63; 98,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,0; 64,34</t>
+          <t>49,58; 64,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,01; 98,77</t>
+          <t>95,8; 98,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,63; 82,68</t>
+          <t>75,76; 82,85</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,0; 99,32</t>
+          <t>98,01; 99,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,33; 83,56</t>
+          <t>67,4; 83,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,31; 97,98</t>
+          <t>95,38; 98,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,73; 80,59</t>
+          <t>66,02; 82,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,34; 98,63</t>
+          <t>97,36; 98,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,42; 79,44</t>
+          <t>69,58; 79,46</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,75</t>
+          <t>97,68; 99,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,15; 87,1</t>
+          <t>79,34; 86,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,11; 99,63</t>
+          <t>96,32; 99,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,28; 78,28</t>
+          <t>69,16; 78,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,67</t>
+          <t>97,66; 99,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,71; 81,62</t>
+          <t>75,73; 81,87</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,18; 99,18</t>
+          <t>98,13; 99,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,09; 84,33</t>
+          <t>74,4; 84,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,97; 98,17</t>
+          <t>95,99; 98,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,75; 78,08</t>
+          <t>66,64; 77,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,63; 98,59</t>
+          <t>97,61; 98,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,3; 79,35</t>
+          <t>73,28; 79,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>88,46%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,23%</t>
+          <t>79,32%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,27; 92,73</t>
+          <t>82,86; 92,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,58; 64,5</t>
+          <t>49,76; 65,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,76; 82,85</t>
+          <t>75,36; 83,04</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,12%</t>
+          <t>68,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,34%</t>
+          <t>70,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>69,51%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,4; 83,36</t>
+          <t>40,04; 83,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,02; 82,09</t>
+          <t>57,59; 84,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,58; 79,46</t>
+          <t>46,94; 79,43</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,78%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,0%</t>
+          <t>79,72%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,34; 86,89</t>
+          <t>79,99; 87,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,16; 78,49</t>
+          <t>69,75; 78,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,73; 81,87</t>
+          <t>76,54; 82,6</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>74,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,99%</t>
+          <t>72,7%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,4; 84,21</t>
+          <t>52,35; 84,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,64; 77,58</t>
+          <t>60,33; 81,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,28; 79,73</t>
+          <t>58,38; 80,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P29A_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +524,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +545,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>47,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24,63%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,62; 99,38</t>
+          <t>40,32; 46,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,86; 92,41</t>
+          <t>45,44; 52,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,63; 98,34</t>
+          <t>41,34; 48,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,76; 65,05</t>
+          <t>43,16; 51,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,8; 98,69</t>
+          <t>9,81; 13,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,36; 83,04</t>
+          <t>12,53; 16,58</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 15,12</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7,57; 11,07</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23,5; 27,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,69; 30,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,51; 28,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,54; 26,73</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>60,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,89%</t>
+          <t>57,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>58,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70,39%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>98,06%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31,77%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>43,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,51%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,31</t>
+          <t>57,54; 62,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,04; 83,91</t>
+          <t>54,9; 59,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 98,0</t>
+          <t>56,33; 60,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,59; 84,38</t>
+          <t>30,6; 49,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,36; 98,63</t>
+          <t>29,12; 33,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,94; 79,43</t>
+          <t>26,93; 31,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32,48; 36,67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 51,35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44,47; 47,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 45,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45,22; 48,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32,05; 46,0</t>
         </is>
       </c>
     </row>
@@ -761,32 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>60,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>65,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>53,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>38,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,72%</t>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49,7%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>50,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>55,6%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>58,63%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45,26%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>97,68; 99,75</t>
+          <t>56,21; 64,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,99; 87,38</t>
+          <t>60,91; 70,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>96,32; 99,63</t>
+          <t>63,33; 71,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,75; 78,99</t>
+          <t>49,21; 57,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,66; 99,54</t>
+          <t>34,08; 42,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,54; 82,6</t>
+          <t>40,58; 50,79</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45,15; 54,07</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>34,13; 40,64</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47,21; 53,33</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>52,06; 59,0</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>55,59; 61,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 48,03</t>
         </is>
       </c>
     </row>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>54,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>56,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>25,7%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28,09%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40,4%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36,64%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,2</t>
+          <t>53,24; 56,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,35; 84,54</t>
+          <t>54,17; 57,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,99; 98,09</t>
+          <t>55,53; 58,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,33; 81,12</t>
+          <t>36,23; 49,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,61; 98,59</t>
+          <t>23,05; 25,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,38; 80,0</t>
+          <t>24,14; 27,2</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29,25; 32,35</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 41,53</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38,24; 40,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>39,16; 41,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>42,43; 44,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33,26; 42,61</t>
         </is>
       </c>
     </row>
@@ -918,13 +1214,1012 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumió bebidas alcohólicas en las últimas dos semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>443722</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>455921</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>331932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>243958</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>148025</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>189879</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>125353</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>67333</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>591747</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>645800</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>457286</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>311290</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>411794; 476041</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>422655; 486482</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>302283; 357103</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>221321; 263542</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>128746; 171547</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>164978; 218234</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>105202; 148709</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56863; 83174</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>548342; 634921</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>599524; 689141</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>420241; 493193</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>284887; 337874</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1479</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1004157</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1072590</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1180395</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>985825</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>493411</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>503110</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>681184</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>709850</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1497568</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1575700</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1861580</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1695675</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>960025; 1042307</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1027758; 1116154</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1133928; 1225426</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>699603; 1124623</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>458109; 531242</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>463691; 543681</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>637267; 719490</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>538576; 1147301</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1441522; 1550267</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1519529; 1637613</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1797507; 1926781</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1448818; 2079391</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>706</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>328216</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>303654</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>355978</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>344253</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>182419</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>201915</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>263408</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>246303</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>510635</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>505570</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>619387</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>590556</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>305051; 350391</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>283543; 326519</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>333390; 377565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>318231; 372953</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>162024; 203086</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>180089; 225443</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>239315; 286583</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>224711; 267566</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>480685; 542948</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>473411; 536539</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>587274; 652628</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>554796; 626819</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1745</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1767</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2546</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2792</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2782</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1776095</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1832165</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1868306</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1574035</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>823855</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>894904</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1069945</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1023486</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2599950</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2727070</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2938252</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2597521</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1721081; 1830050</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1769988; 1888008</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1816376; 1923115</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1248334; 1712669</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>774438; 871859</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>840574; 947231</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1016756; 1124449</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>847834; 1513290</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2521204; 2681089</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2642961; 2815066</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2862262; 3023349</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2357641; 3020393</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
